--- a/Practice1-4-2/flowchart.xlsx
+++ b/Practice1-4-2/flowchart.xlsx
@@ -79,6 +79,54 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>74217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27979</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438525" y="788592"/>
+          <a:ext cx="18454" cy="4878783"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -238,13 +286,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>504824</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -253,8 +301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562224" y="2000250"/>
-          <a:ext cx="1762125" cy="609600"/>
+          <a:off x="2562224" y="2000249"/>
+          <a:ext cx="1762125" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -687,54 +735,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>74217</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>27979</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3438525" y="788592"/>
-          <a:ext cx="18454" cy="4878783"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1005,7 +1005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
